--- a/Data Files/Web/REG_WhatsappNonDigit.xlsx
+++ b/Data Files/Web/REG_WhatsappNonDigit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rizki\git\CodingID-QA\Data Files\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC466D1-3C8E-41E5-A4B3-32ACA57DC741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B45B1A-2D7B-4795-A0A8-0463CE5FA047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16B306DF-9094-4C0A-A032-600CADA8B366}"/>
+    <workbookView xWindow="2820" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{16B306DF-9094-4C0A-A032-600CADA8B366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
